--- a/biology/Botanique/Bill_Molyneux/Bill_Molyneux.xlsx
+++ b/biology/Botanique/Bill_Molyneux/Bill_Molyneux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Mitchell Molyneux, né en 1935, est un horticulteur et auteur australien, qui a étudié et développé de nombreuses variétés de plantes populaires de l'Australie.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bill Molyneux est né en 1935. En 1978, il s'installe à Bend Wombat, dans la vallée de la Yarra[1], au Victoria, en Australie. En 1998, il travaille comme consultant sur l'érosion dans le système Murray-Darling[2].
-Il est chargé de recherches honoraire de l'université La Trobe (Melbourne) et associé honoraire des Jardins botaniques royaux de Melbourne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bill Molyneux est né en 1935. En 1978, il s'installe à Bend Wombat, dans la vallée de la Yarra, au Victoria, en Australie. En 1998, il travaille comme consultant sur l'érosion dans le système Murray-Darling.
+Il est chargé de recherches honoraire de l'université La Trobe (Melbourne) et associé honoraire des Jardins botaniques royaux de Melbourne.
 </t>
         </is>
       </c>
@@ -543,15 +557,52 @@
           <t>Activité scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Bill Molyneux écrit des livres de jardinage, publiés en Australie. En 1975, il décrit, dans Muelleria, la protéacée Grevillea microstegia. L'abréviation Molyneux est utilisée pour indiquer Bill Molyneux comme autorité dans la description et la classification scientifique des plantes[3].
-Création de plantes
-Bill Molyneux crée les plantes suivantes :
-Banksia Birthday Candles, aux fleurs jaunes à extrémité pourpre, atteignant 1 m de hauteur[1]
-Hardenbergia Free'n'Easy, de couleur blanche[1]
-Hardenbergia Happy Wanderer, de couleur pourpre[1]
-Isopogon Woorikee 2000, de couleur jaune, atteignant 75 cm de hauteur[1]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bill Molyneux écrit des livres de jardinage, publiés en Australie. En 1975, il décrit, dans Muelleria, la protéacée Grevillea microstegia. L'abréviation Molyneux est utilisée pour indiquer Bill Molyneux comme autorité dans la description et la classification scientifique des plantes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bill_Molyneux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bill_Molyneux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Activité scientifique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Création de plantes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bill Molyneux crée les plantes suivantes :
+Banksia Birthday Candles, aux fleurs jaunes à extrémité pourpre, atteignant 1 m de hauteur
+Hardenbergia Free'n'Easy, de couleur blanche
+Hardenbergia Happy Wanderer, de couleur pourpre
+Isopogon Woorikee 2000, de couleur jaune, atteignant 75 cm de hauteur</t>
         </is>
       </c>
     </row>
